--- a/Ghantt.xlsx
+++ b/Ghantt.xlsx
@@ -1,30 +1,92 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Documents\Epn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yibril\Documents\GitHub\Fernando\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C26A07-EE4D-4E11-80E6-960E7B3B8407}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Gráfico" sheetId="2" r:id="rId1"/>
+    <sheet name="Ene" sheetId="13" r:id="rId1"/>
+    <sheet name="Feb" sheetId="2" r:id="rId2"/>
+    <sheet name="Abr" sheetId="4" r:id="rId3"/>
+    <sheet name="May" sheetId="5" r:id="rId4"/>
+    <sheet name="Jun" sheetId="6" r:id="rId5"/>
+    <sheet name="Jul" sheetId="7" r:id="rId6"/>
+    <sheet name="Ago" sheetId="8" r:id="rId7"/>
+    <sheet name="Sep" sheetId="9" r:id="rId8"/>
+    <sheet name="Oct" sheetId="10" r:id="rId9"/>
+    <sheet name="Nov" sheetId="11" r:id="rId10"/>
+    <sheet name="Dic" sheetId="12" r:id="rId11"/>
+    <sheet name="anual" sheetId="15" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Feb!$E$15</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Feb!$E$16</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Feb!$E$15</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Feb!$E$16</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Feb!$E$17</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Feb!$E$18</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Feb!$E$19</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Feb!$F$15</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Feb!$F$16</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Feb!$F$17</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Feb!$F$18</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Feb!$F$19</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Feb!$E$17</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Feb!$E$15</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Feb!$E$16</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Feb!$E$17</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Feb!$E$18</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Feb!$E$19</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Feb!$F$15</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Feb!$F$16</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Feb!$F$17</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Feb!$F$18</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Feb!$F$19</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Feb!$E$18</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Feb!$E$15</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Feb!$E$16</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Feb!$E$17</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Feb!$E$18</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Feb!$E$19</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Feb!$F$15</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Feb!$F$16</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Feb!$F$17</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Feb!$F$18</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Feb!$F$19</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Feb!$E$19</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Feb!$F$15</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Feb!$F$16</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Feb!$F$17</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Feb!$F$18</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Feb!$F$19</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>N° Actividad</t>
   </si>
@@ -33,9 +95,6 @@
   </si>
   <si>
     <t>Final</t>
-  </si>
-  <si>
-    <t>FERIADOS</t>
   </si>
   <si>
     <t>Fecha</t>
@@ -70,11 +129,23 @@
   <si>
     <t>Dormir 6h</t>
   </si>
+  <si>
+    <t>RACHA</t>
+  </si>
+  <si>
+    <t>habito</t>
+  </si>
+  <si>
+    <t>Fa</t>
+  </si>
+  <si>
+    <t>frecuencia</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,7 +189,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +217,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,15 +332,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -286,37 +354,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -345,6 +426,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -367,6 +476,41 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7"/>
         </patternFill>
       </fill>
@@ -381,9 +525,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="4" tint="0.39994506668294322"/>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -391,6 +534,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -404,6 +554,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99FF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -413,6 +568,2934 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-EC"/>
+              <a:t>mes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10410288924107615"/>
+          <c:y val="0.23417103580877391"/>
+          <c:w val="0.83289107611548552"/>
+          <c:h val="0.54380322251385238"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feb!$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Levantarse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Feb!$G$15:$AK$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A3F8-45AB-BA1B-5D1ED4D18239}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feb!$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ejercicio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Feb!$G$16:$AK$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A3F8-45AB-BA1B-5D1ED4D18239}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feb!$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planificar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Feb!$G$17:$AK$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A3F8-45AB-BA1B-5D1ED4D18239}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feb!$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estudiar 3h</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Feb!$G$18:$AK$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A3F8-45AB-BA1B-5D1ED4D18239}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feb!$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dormir 6h</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Feb!$G$19:$AK$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A3F8-45AB-BA1B-5D1ED4D18239}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="298041184"/>
+        <c:axId val="301934160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="298041184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="301934160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="301934160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="298041184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-EC"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6642428957887965E-2"/>
+          <c:y val="3.387439002759296E-2"/>
+          <c:w val="0.83474504874901578"/>
+          <c:h val="0.90346287842516981"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feb!$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Levantarse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent2"/>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Promedio</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feb!$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-620C-4A9D-87A0-E95A577F33C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feb!$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ejercicio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent1"/>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Promedio</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feb!$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-620C-4A9D-87A0-E95A577F33C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feb!$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planificar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent3"/>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent3"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Promedio</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feb!$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-620C-4A9D-87A0-E95A577F33C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feb!$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estudiar 3h</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent4"/>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Promedio</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feb!$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-620C-4A9D-87A0-E95A577F33C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feb!$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dormir 6h</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent5"/>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>Promedio</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feb!$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-620C-4A9D-87A0-E95A577F33C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="315"/>
+        <c:shape val="box"/>
+        <c:axId val="552055688"/>
+        <c:axId val="552056672"/>
+        <c:axId val="646490200"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="552055688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552056672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="552056672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552055688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="646490200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-EC"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552056672"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-EC"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>364391</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>311637</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>25319</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F97AA640-5E3A-47CC-B305-AB91378576AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3969</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>65088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF8A358D-A7F7-4C49-B7B3-8F89687E9C80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -677,30 +3760,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD13B06E-9232-4A6A-9106-422EC689F444}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0857D3EF-CCB1-4AE6-BBBE-88431F114A6B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0686519F-BF62-4645-BE93-CA161192604B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0C1DA2-51B3-4A6B-AC95-ECC1077ABFF0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B1:AN23"/>
+  <dimension ref="B1:AO23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="40" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="40" width="4.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:41" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:41" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1</v>
@@ -832,172 +3963,220 @@
         <f t="shared" ca="1" si="0"/>
         <v>43892</v>
       </c>
-      <c r="AL2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
+      <c r="AL2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO2" s="21" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="2:40" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
-        <v>10</v>
+    <row r="3" spans="2:41" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>43863</v>
+        <v>43864</v>
       </c>
       <c r="F3" s="2">
-        <f>WORKDAY(E3-1,D3,I14:L23)</f>
-        <v>43862</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10">
+        <f>E3+D3-1</f>
+        <v>43864</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
         <v>1</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-      <c r="AK3" s="10"/>
-      <c r="AL3" s="10">
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7">
         <f ca="1">SUM(G3:AK3)/$C$15</f>
-        <v>0.5</v>
-      </c>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7">
+        <f>D3</f>
+        <v>1</v>
+      </c>
+      <c r="AO3" s="22">
+        <f>SUM(G3:AK3)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="2:40" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
-        <v>11</v>
+    <row r="4" spans="2:41" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <v>43864</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F11" si="1">WORKDAY(E4-1,D4,I15:L24)</f>
-        <v>43863</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="10"/>
-      <c r="AL4" s="10"/>
-      <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
+        <f t="shared" ref="F4:F11" si="1">E4+D4-1</f>
+        <v>43864</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7">
+        <f t="shared" ref="AL4:AL7" ca="1" si="2">SUM(G4:AK4)/$C$15</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7">
+        <f t="shared" ref="AN4:AN7" si="3">D4</f>
+        <v>1</v>
+      </c>
+      <c r="AO4" s="22">
+        <f t="shared" ref="AO4:AO7" si="4">SUM(G4:AK4)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="2:40" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
-        <v>12</v>
+    <row r="5" spans="2:41" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="1"/>
         <v>43864</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="10"/>
-      <c r="AL5" s="10"/>
-      <c r="AM5" s="10"/>
-      <c r="AN5" s="10"/>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AO5" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="2:40" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
-        <v>13</v>
+    <row r="6" spans="2:41" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
@@ -1010,44 +4189,58 @@
         <f t="shared" si="1"/>
         <v>43865</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="10"/>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="2:40" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
-        <v>14</v>
+    <row r="7" spans="2:41" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
@@ -1060,43 +4253,57 @@
         <f t="shared" si="1"/>
         <v>43866</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="2:40" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
+    <row r="8" spans="2:41" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="14"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
         <v>0</v>
@@ -1108,43 +4315,44 @@
         <f t="shared" si="1"/>
         <v>43867</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="18"/>
     </row>
-    <row r="9" spans="2:40" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
+    <row r="9" spans="2:41" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="14"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
         <v>0</v>
@@ -1156,43 +4364,44 @@
         <f t="shared" si="1"/>
         <v>43868</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="18"/>
     </row>
-    <row r="10" spans="2:40" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
+    <row r="10" spans="2:41" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="14"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
         <v>0</v>
@@ -1204,43 +4413,44 @@
         <f t="shared" si="1"/>
         <v>43869</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="10"/>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="10"/>
-      <c r="AN10" s="10"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
+      <c r="AH10" s="7"/>
+      <c r="AI10" s="7"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="18"/>
     </row>
-    <row r="11" spans="2:40" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="17"/>
+    <row r="11" spans="2:41" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="14"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
         <v>0</v>
@@ -1252,175 +4462,931 @@
         <f t="shared" si="1"/>
         <v>43870</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
-      <c r="AM11" s="10"/>
-      <c r="AN11" s="10"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="7"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="18"/>
     </row>
-    <row r="13" spans="2:40" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I13" s="7" t="s">
+    <row r="13" spans="2:41" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="2:41" x14ac:dyDescent="0.35">
+      <c r="B14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="C14" s="9">
+        <f ca="1">TODAY()</f>
+        <v>43864</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="20"/>
     </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+    <row r="15" spans="2:41" x14ac:dyDescent="0.35">
+      <c r="B15" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="12">
-        <f ca="1">TODAY()</f>
-        <v>43863</v>
-      </c>
-      <c r="I14" s="8">
-        <v>43573</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="C15" s="11">
+        <f ca="1">DAY(TODAY())</f>
+        <v>3</v>
+      </c>
+      <c r="E15" s="19">
+        <f ca="1">AL3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F15" s="18" t="str">
+        <f>B3</f>
+        <v>Levantarse</v>
+      </c>
+      <c r="G15" s="19">
+        <f>G3</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="19">
+        <f>G15+H3</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="19">
+        <f t="shared" ref="I15:AK15" si="5">H15+I3</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AC15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AD15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AE15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AF15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AG15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AH15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AI15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AK15" s="19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+    <row r="16" spans="2:41" x14ac:dyDescent="0.35">
+      <c r="B16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="14">
-        <f ca="1">DAY(TODAY())</f>
-        <v>2</v>
-      </c>
-      <c r="I15" s="8">
-        <v>43574</v>
-      </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="14">
+      <c r="C16" s="11">
         <f ca="1">DAY(EOMONTH(C14,0))</f>
         <v>29</v>
       </c>
-      <c r="I16" s="8">
-        <v>43577</v>
-      </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="E16" s="19">
+        <f t="shared" ref="E16:E19" ca="1" si="6">AL4</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F16" s="18" t="str">
+        <f t="shared" ref="F16:F18" si="7">B4</f>
+        <v>Ejercicio</v>
+      </c>
+      <c r="G16" s="19">
+        <f t="shared" ref="G16:V19" si="8">G4</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="19">
+        <f t="shared" ref="W16:AK19" si="9">W4</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="16">
+    <row r="17" spans="2:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="13">
         <f ca="1">C14-C15+1</f>
         <v>43862</v>
       </c>
-      <c r="I17" s="8">
-        <v>43586</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="E17" s="19">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F17" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Planificar</v>
+      </c>
+      <c r="G17" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="19">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+    <row r="18" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="E18" s="19">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v>Estudiar 3h</v>
+      </c>
+      <c r="G18" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+    <row r="19" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="E19" s="19">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="18" t="str">
+        <f>B7</f>
+        <v>Dormir 6h</v>
+      </c>
+      <c r="G19" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+    <row r="20" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+    <row r="21" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+    <row r="22" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+    <row r="23" spans="2:37" x14ac:dyDescent="0.35">
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="I19:L19"/>
+  <mergeCells count="5">
+    <mergeCell ref="I13:L13"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="I21:L21"/>
     <mergeCell ref="I22:L22"/>
     <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:AK11">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND(G$2&gt;=$E3,G$2&lt;=$F3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>$C$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:AK2">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>$C$14</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AN3:AN7">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThanOrEqual">
+      <formula>21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK4:AK11 X3:AJ11 G3:AK3 G4:W11">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="8" priority="1">
+      <formula>LEN(TRIM(G3))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C221791E-0D4B-4540-ACA9-AA881AE59805}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D944E90C-8CFB-43B4-8F7D-871E01CC5F11}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3FB018-BE0C-402C-AFA4-B7CB37D62905}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C98981D-9BA2-444B-B1B5-EC0F3A63FE8E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A9E76B-CB0A-4D7F-B55C-3B214045EAF2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3BA24D-4690-40E7-B65E-A9B74FB42BD4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D503C5EB-4934-4D04-B163-0598A5B100AC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Ghantt.xlsx
+++ b/Ghantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yibril\Documents\GitHub\Fernando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C26A07-EE4D-4E11-80E6-960E7B3B8407}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BA8C7B-B741-4015-8FA9-85712CCBC77B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,10 +136,10 @@
     <t>habito</t>
   </si>
   <si>
-    <t>Fa</t>
+    <t>frecuencia</t>
   </si>
   <si>
-    <t>frecuencia</t>
+    <t>F Acumulada</t>
   </si>
 </sst>
 </file>
@@ -3812,8 +3812,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:AO23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:H11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3973,7 +3973,7 @@
         <v>15</v>
       </c>
       <c r="AO2" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:41" ht="22" customHeight="1" x14ac:dyDescent="0.35">
@@ -4513,7 +4513,7 @@
         <v>43864</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>

--- a/Ghantt.xlsx
+++ b/Ghantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yibril\Documents\GitHub\Fernando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BA8C7B-B741-4015-8FA9-85712CCBC77B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3EDE92-1C37-4705-B085-F5B94CD4E447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,7 +372,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="36">
     <dxf>
       <fill>
         <patternFill>
@@ -398,6 +398,84 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF48EE32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBBEF6F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -556,6 +634,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFBBEF6F"/>
+      <color rgb="FFACEE70"/>
+      <color rgb="FF48EE32"/>
       <color rgb="FF99FF99"/>
     </mruColors>
   </colors>
@@ -3813,7 +3895,7 @@
   <dimension ref="B1:AO23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="AN3" sqref="AN3:AN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5271,33 +5353,48 @@
     <mergeCell ref="I23:L23"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:AK11">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="17" priority="6">
       <formula>AND(G$2&gt;=$E3,G$2&lt;=$F3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>$C$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:AK2">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>$C$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN3:AN7">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThanOrEqual">
       <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="between">
+      <formula>14</formula>
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="between">
+      <formula>7</formula>
+      <formula>14</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="between">
+      <formula>1</formula>
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AK11 X3:AJ11 G3:AK3 G4:W11">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="8" priority="1">
+    <cfRule type="containsBlanks" dxfId="13" priority="5">
       <formula>LEN(TRIM(G3))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
